--- a/Additions/NetFrameworkByNet.xlsx
+++ b/Additions/NetFrameworkByNet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\Test\Untappd\UntappdViewerNet\Additions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D12C5D2-A513-4C3C-AAE6-36F177D3262E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FEC9CE-A254-403D-813D-D63960C95D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="2430" windowWidth="25440" windowHeight="15390" xr2:uid="{AB8C800B-24A0-4E7B-837D-F0CCFFA265D7}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="63">
   <si>
     <t>HtmlAgilityPack</t>
   </si>
@@ -214,6 +213,9 @@
   </si>
   <si>
     <t>-Version 1.5.8(net8.0)</t>
+  </si>
+  <si>
+    <t>-Version 1.11.59</t>
   </si>
 </sst>
 </file>
@@ -243,7 +245,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,6 +261,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,7 +336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -338,6 +346,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -362,6 +371,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -677,21 +687,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D56A9B-2CE9-444D-B94A-AB3506AA9259}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="71.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="71.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -701,14 +712,18 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -718,14 +733,16 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>3</v>
       </c>
@@ -735,14 +752,16 @@
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>9</v>
@@ -750,23 +769,27 @@
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -776,23 +799,27 @@
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -802,14 +829,16 @@
       <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -819,23 +848,27 @@
       <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="15"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -845,14 +878,16 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1"/>
+      <c r="E11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -862,14 +897,16 @@
       <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1"/>
+      <c r="E12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -879,14 +916,16 @@
       <c r="C13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1"/>
+      <c r="E13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -896,14 +935,16 @@
       <c r="C14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1"/>
+      <c r="E14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -913,14 +954,16 @@
       <c r="C15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1"/>
+      <c r="E15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -930,23 +973,27 @@
       <c r="C16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="15"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>13</v>
       </c>
@@ -956,14 +1003,16 @@
       <c r="C18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1"/>
+      <c r="E18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>14</v>
       </c>
@@ -973,23 +1022,27 @@
       <c r="C19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3"/>
+      <c r="E19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="15"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>15</v>
       </c>
@@ -999,14 +1052,16 @@
       <c r="C21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1"/>
+      <c r="E21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>16</v>
       </c>
@@ -1016,14 +1071,16 @@
       <c r="C22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="1"/>
+      <c r="E22" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>17</v>
       </c>
@@ -1033,14 +1090,16 @@
       <c r="C23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="1"/>
+      <c r="E23" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>18</v>
       </c>
@@ -1050,14 +1109,16 @@
       <c r="C24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="1"/>
+      <c r="E24" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>19</v>
       </c>
@@ -1067,14 +1128,16 @@
       <c r="C25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="1"/>
+      <c r="E25" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>20</v>
       </c>
@@ -1084,14 +1147,16 @@
       <c r="C26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1"/>
+      <c r="E26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>21</v>
       </c>
@@ -1101,14 +1166,16 @@
       <c r="C27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="1"/>
+      <c r="E27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>22</v>
       </c>
@@ -1118,46 +1185,48 @@
       <c r="C28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1"/>
+      <c r="E28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="F28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B10:F10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" xr:uid="{6027703E-9C6D-4541-A1CD-404E8B52DDAC}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{72C1989B-7236-48D3-A1F7-31728254F8F6}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{52120CE9-3D49-46C3-81DB-6295E309E89E}"/>
-    <hyperlink ref="D4" r:id="rId4" xr:uid="{13B80CF7-0997-4ECA-AA53-45E248110F8E}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{F247915A-541C-478A-B5B1-4FCB2442F715}"/>
-    <hyperlink ref="D8" r:id="rId6" xr:uid="{00A2E581-8CFB-4AE8-BF66-FC5747EF06E0}"/>
-    <hyperlink ref="D11" r:id="rId7" xr:uid="{4DEF4118-2D3C-4FB5-9D92-BF10B8309A6B}"/>
-    <hyperlink ref="D12" r:id="rId8" xr:uid="{D9DE4368-7F29-49B8-83E7-53BE1C90C0FD}"/>
-    <hyperlink ref="D13" r:id="rId9" xr:uid="{89197C8D-0450-422A-9B55-3870190F20A9}"/>
-    <hyperlink ref="D14" r:id="rId10" xr:uid="{3C1410C8-364B-4551-86B6-FB900048E08F}"/>
-    <hyperlink ref="D15" r:id="rId11" xr:uid="{2485D4B7-A970-40F7-B4DF-7D661E76ACD1}"/>
-    <hyperlink ref="D16" r:id="rId12" xr:uid="{194606AE-336D-4E0A-9CB9-5C5D1E52A972}"/>
-    <hyperlink ref="D18" r:id="rId13" xr:uid="{25C9604D-3465-4C6C-85BC-CCA9D4B62312}"/>
-    <hyperlink ref="D19" r:id="rId14" xr:uid="{9D8C8C3B-0871-43C6-B1A3-DE6243AD71CF}"/>
-    <hyperlink ref="D21" r:id="rId15" xr:uid="{1BDB962E-0E3C-413B-9ADE-C9D2152C9BFB}"/>
-    <hyperlink ref="D22" r:id="rId16" xr:uid="{1AFBFC7E-F98B-4977-91F3-5347633A786E}"/>
-    <hyperlink ref="D23" r:id="rId17" xr:uid="{7A071C67-6372-47E9-8A69-28FED4536D5D}"/>
-    <hyperlink ref="D24" r:id="rId18" xr:uid="{ACD36FD5-0F52-4BFE-8A84-849C8C6EABD8}"/>
-    <hyperlink ref="D25" r:id="rId19" xr:uid="{67E1C08C-B9AC-44A2-BF38-CD52EC0B5E64}"/>
-    <hyperlink ref="D26" r:id="rId20" xr:uid="{9A32CB38-2BB1-4714-B7E9-CB5DFB78CF8B}"/>
-    <hyperlink ref="D27" r:id="rId21" xr:uid="{39767C41-5F46-4DD1-9665-F9D048C92C3C}"/>
-    <hyperlink ref="D28" r:id="rId22" xr:uid="{1302AC1E-6718-4FAF-AD5E-36584A0F35AE}"/>
-    <hyperlink ref="D9" r:id="rId23" xr:uid="{963F8DD4-7295-4C66-A179-190994A702B5}"/>
+    <hyperlink ref="E1" r:id="rId1" xr:uid="{6027703E-9C6D-4541-A1CD-404E8B52DDAC}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{72C1989B-7236-48D3-A1F7-31728254F8F6}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{52120CE9-3D49-46C3-81DB-6295E309E89E}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{13B80CF7-0997-4ECA-AA53-45E248110F8E}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{F247915A-541C-478A-B5B1-4FCB2442F715}"/>
+    <hyperlink ref="E8" r:id="rId6" xr:uid="{00A2E581-8CFB-4AE8-BF66-FC5747EF06E0}"/>
+    <hyperlink ref="E11" r:id="rId7" xr:uid="{4DEF4118-2D3C-4FB5-9D92-BF10B8309A6B}"/>
+    <hyperlink ref="E12" r:id="rId8" xr:uid="{D9DE4368-7F29-49B8-83E7-53BE1C90C0FD}"/>
+    <hyperlink ref="E13" r:id="rId9" xr:uid="{89197C8D-0450-422A-9B55-3870190F20A9}"/>
+    <hyperlink ref="E14" r:id="rId10" xr:uid="{3C1410C8-364B-4551-86B6-FB900048E08F}"/>
+    <hyperlink ref="E15" r:id="rId11" xr:uid="{2485D4B7-A970-40F7-B4DF-7D661E76ACD1}"/>
+    <hyperlink ref="E16" r:id="rId12" xr:uid="{194606AE-336D-4E0A-9CB9-5C5D1E52A972}"/>
+    <hyperlink ref="E18" r:id="rId13" xr:uid="{25C9604D-3465-4C6C-85BC-CCA9D4B62312}"/>
+    <hyperlink ref="E19" r:id="rId14" xr:uid="{9D8C8C3B-0871-43C6-B1A3-DE6243AD71CF}"/>
+    <hyperlink ref="E21" r:id="rId15" xr:uid="{1BDB962E-0E3C-413B-9ADE-C9D2152C9BFB}"/>
+    <hyperlink ref="E22" r:id="rId16" xr:uid="{1AFBFC7E-F98B-4977-91F3-5347633A786E}"/>
+    <hyperlink ref="E23" r:id="rId17" xr:uid="{7A071C67-6372-47E9-8A69-28FED4536D5D}"/>
+    <hyperlink ref="E24" r:id="rId18" xr:uid="{ACD36FD5-0F52-4BFE-8A84-849C8C6EABD8}"/>
+    <hyperlink ref="E25" r:id="rId19" xr:uid="{67E1C08C-B9AC-44A2-BF38-CD52EC0B5E64}"/>
+    <hyperlink ref="E26" r:id="rId20" xr:uid="{9A32CB38-2BB1-4714-B7E9-CB5DFB78CF8B}"/>
+    <hyperlink ref="E27" r:id="rId21" xr:uid="{39767C41-5F46-4DD1-9665-F9D048C92C3C}"/>
+    <hyperlink ref="E28" r:id="rId22" xr:uid="{1302AC1E-6718-4FAF-AD5E-36584A0F35AE}"/>
+    <hyperlink ref="E9" r:id="rId23" xr:uid="{963F8DD4-7295-4C66-A179-190994A702B5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Additions/NetFrameworkByNet.xlsx
+++ b/Additions/NetFrameworkByNet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\Test\Untappd\UntappdViewerNet\Additions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FEC9CE-A254-403D-813D-D63960C95D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CD7EAD-12E6-4B27-A229-80B23FE4B68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="2430" windowWidth="25440" windowHeight="15390" xr2:uid="{AB8C800B-24A0-4E7B-837D-F0CCFFA265D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB8C800B-24A0-4E7B-837D-F0CCFFA265D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
   <si>
     <t>HtmlAgilityPack</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>-Version 1.11.59</t>
+  </si>
+  <si>
+    <t>-Version 13.0.3</t>
   </si>
 </sst>
 </file>
@@ -690,7 +693,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,14 +736,16 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">

--- a/Additions/NetFrameworkByNet.xlsx
+++ b/Additions/NetFrameworkByNet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\Test\Untappd\UntappdViewerNet\Additions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CD7EAD-12E6-4B27-A229-80B23FE4B68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA9F1BF-D596-4DEB-B9DD-E7E59FA81B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB8C800B-24A0-4E7B-837D-F0CCFFA265D7}"/>
+    <workbookView xWindow="-25320" yWindow="2430" windowWidth="25440" windowHeight="15390" xr2:uid="{AB8C800B-24A0-4E7B-837D-F0CCFFA265D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
   <si>
     <t>HtmlAgilityPack</t>
   </si>
@@ -219,6 +219,12 @@
   </si>
   <si>
     <t>-Version 13.0.3</t>
+  </si>
+  <si>
+    <t>-Version 4.7.0.9</t>
+  </si>
+  <si>
+    <t>-Version 2.1.11</t>
   </si>
 </sst>
 </file>
@@ -339,7 +345,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -375,6 +381,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -693,7 +700,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,14 +764,16 @@
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -774,14 +783,16 @@
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="19" t="s">
+        <v>65</v>
+      </c>
       <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -792,7 +803,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">

--- a/Additions/NetFrameworkByNet.xlsx
+++ b/Additions/NetFrameworkByNet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\Test\Untappd\UntappdViewerNet\Additions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA9F1BF-D596-4DEB-B9DD-E7E59FA81B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC54584-9A6B-4178-A41E-E250FEE80E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="2430" windowWidth="25440" windowHeight="15390" xr2:uid="{AB8C800B-24A0-4E7B-837D-F0CCFFA265D7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="67">
   <si>
     <t>HtmlAgilityPack</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>-Version 2.1.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '-Version 1.0.4</t>
   </si>
 </sst>
 </file>
@@ -700,7 +703,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="G6" sqref="G6:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,14 +818,16 @@
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="E6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -833,7 +838,7 @@
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5">

--- a/Additions/NetFrameworkByNet.xlsx
+++ b/Additions/NetFrameworkByNet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\Test\Untappd\UntappdViewerNet\Additions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC54584-9A6B-4178-A41E-E250FEE80E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AA2A43-B340-4ED6-83F6-C2F41C235AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="2430" windowWidth="25440" windowHeight="15390" xr2:uid="{AB8C800B-24A0-4E7B-837D-F0CCFFA265D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB8C800B-24A0-4E7B-837D-F0CCFFA265D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
   <si>
     <t>HtmlAgilityPack</t>
   </si>
@@ -212,9 +212,6 @@
     <t>net8.0-windows</t>
   </si>
   <si>
-    <t>-Version 1.5.8(net8.0)</t>
-  </si>
-  <si>
     <t>-Version 1.11.59</t>
   </si>
   <si>
@@ -228,6 +225,12 @@
   </si>
   <si>
     <t xml:space="preserve"> '-Version 1.0.4</t>
+  </si>
+  <si>
+    <t>-Version 2.0.5</t>
+  </si>
+  <si>
+    <t>-Version 1.5.8</t>
   </si>
 </sst>
 </file>
@@ -348,7 +351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -380,11 +383,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -703,7 +706,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G7"/>
+      <selection activeCell="G9" sqref="G9:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,7 +729,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -734,7 +737,7 @@
       <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="18"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -747,7 +750,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
@@ -755,7 +758,7 @@
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="18"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -767,8 +770,8 @@
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>64</v>
+      <c r="D3" s="18" t="s">
+        <v>63</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>5</v>
@@ -776,7 +779,7 @@
       <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="18"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -786,8 +789,8 @@
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>65</v>
+      <c r="D4" s="18" t="s">
+        <v>64</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>10</v>
@@ -795,7 +798,7 @@
       <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="18"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -806,7 +809,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="18"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -819,7 +822,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>14</v>
@@ -827,7 +830,7 @@
       <c r="F6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="18"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -838,7 +841,7 @@
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="18"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
@@ -869,25 +872,29 @@
       <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="18" t="s">
+        <v>66</v>
+      </c>
       <c r="E9" s="4" t="s">
         <v>59</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="1"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1216,12 +1223,11 @@
       <c r="G28" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B10:F10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/Additions/NetFrameworkByNet.xlsx
+++ b/Additions/NetFrameworkByNet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\Test\Untappd\UntappdViewerNet\Additions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AA2A43-B340-4ED6-83F6-C2F41C235AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AD3E5D-847C-4456-B27B-050E927B9579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB8C800B-24A0-4E7B-837D-F0CCFFA265D7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="69">
   <si>
     <t>HtmlAgilityPack</t>
   </si>
@@ -197,9 +197,6 @@
     <t>https://www.nuget.org/packages/Unity.Container</t>
   </si>
   <si>
-    <t xml:space="preserve"> -Version 6.0.90 (net8.0)</t>
-  </si>
-  <si>
     <t>-Version 1.1.39 (net8.0)</t>
   </si>
   <si>
@@ -231,6 +228,12 @@
   </si>
   <si>
     <t>-Version 1.5.8</t>
+  </si>
+  <si>
+    <t>-Version 6.1.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -Version 6.0.90 </t>
   </si>
 </sst>
 </file>
@@ -371,9 +374,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -388,6 +388,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -706,7 +707,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:G10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,7 +730,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -737,7 +738,7 @@
       <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="17"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -750,7 +751,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
@@ -758,7 +759,7 @@
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="17"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -770,8 +771,8 @@
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>63</v>
+      <c r="D3" s="17" t="s">
+        <v>62</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>5</v>
@@ -779,7 +780,7 @@
       <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="17"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -789,8 +790,8 @@
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>64</v>
+      <c r="D4" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>10</v>
@@ -798,7 +799,7 @@
       <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="17"/>
+      <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -809,7 +810,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="17"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -822,7 +823,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>14</v>
@@ -830,7 +831,7 @@
       <c r="F6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="17"/>
+      <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -841,7 +842,7 @@
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="17"/>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
@@ -867,34 +868,34 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>66</v>
+      <c r="D9" s="17" t="s">
+        <v>65</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="17"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="20"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="19"/>
       <c r="F10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="17"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -913,7 +914,7 @@
       <c r="F11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -932,7 +933,7 @@
       <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="16"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -951,7 +952,7 @@
       <c r="F13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="16"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -970,7 +971,7 @@
       <c r="F14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -989,7 +990,7 @@
       <c r="F15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="16"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -1001,25 +1002,29 @@
       <c r="C16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="17" t="s">
+        <v>67</v>
+      </c>
       <c r="E16" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="G16" s="16"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="1"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="16"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -1061,13 +1066,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
-      <c r="B20" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
+      <c r="B20" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1223,10 +1228,9 @@
       <c r="G28" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B17:F17"/>
     <mergeCell ref="B20:F20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Additions/NetFrameworkByNet.xlsx
+++ b/Additions/NetFrameworkByNet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\Test\Untappd\UntappdViewerNet\Additions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AD3E5D-847C-4456-B27B-050E927B9579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADAE4D1-E5F2-4AA3-BE0A-09BDC4B93DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB8C800B-24A0-4E7B-837D-F0CCFFA265D7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="82">
   <si>
     <t>HtmlAgilityPack</t>
   </si>
@@ -197,9 +197,6 @@
     <t>https://www.nuget.org/packages/Unity.Container</t>
   </si>
   <si>
-    <t>-Version 1.1.39 (net8.0)</t>
-  </si>
-  <si>
     <t>VirtualizingWrapPanel</t>
   </si>
   <si>
@@ -234,6 +231,48 @@
   </si>
   <si>
     <t xml:space="preserve"> -Version 6.0.90 </t>
+  </si>
+  <si>
+    <t>-Version 3.14.0</t>
+  </si>
+  <si>
+    <t>-Version 12.7.0</t>
+  </si>
+  <si>
+    <t>-Version 1.16.0</t>
+  </si>
+  <si>
+    <t>-Version 5.0.17</t>
+  </si>
+  <si>
+    <t>-Version 3.1.1</t>
+  </si>
+  <si>
+    <t>-Version 1.2.1</t>
+  </si>
+  <si>
+    <t>-Version 1.1.77</t>
+  </si>
+  <si>
+    <t>-Version 1.1.39</t>
+  </si>
+  <si>
+    <t>-Version 8.1.97</t>
+  </si>
+  <si>
+    <t>-Version 6.0.0</t>
+  </si>
+  <si>
+    <t>-Version 4.5.4</t>
+  </si>
+  <si>
+    <t>-Version 4.5.0</t>
+  </si>
+  <si>
+    <t>-Version 5.11.7</t>
+  </si>
+  <si>
+    <t>-Version 5.11.11</t>
   </si>
 </sst>
 </file>
@@ -289,7 +328,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -336,25 +375,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -373,15 +399,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
@@ -707,12 +724,12 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.5703125" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="71.28515625" customWidth="1"/>
@@ -730,7 +747,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -738,7 +755,7 @@
       <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="16"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -751,7 +768,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
@@ -759,7 +776,7 @@
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="16"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -771,8 +788,8 @@
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>62</v>
+      <c r="D3" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>5</v>
@@ -780,7 +797,7 @@
       <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="16"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -790,8 +807,8 @@
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>63</v>
+      <c r="D4" s="14" t="s">
+        <v>62</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>10</v>
@@ -799,7 +816,7 @@
       <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="16"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -810,7 +827,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="16"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -823,7 +840,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>14</v>
@@ -831,7 +848,7 @@
       <c r="F6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="16"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -842,7 +859,7 @@
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="16"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
@@ -868,34 +885,34 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>65</v>
+      <c r="D9" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="16"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="19"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="16"/>
       <c r="F10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="16"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -907,14 +924,16 @@
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="E11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="16"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -926,14 +945,16 @@
       <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="9" t="s">
+        <v>69</v>
+      </c>
       <c r="E12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="16"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -945,14 +966,16 @@
       <c r="C13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="E13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="16"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -964,14 +987,16 @@
       <c r="C14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="E14" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="16"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -983,14 +1008,16 @@
       <c r="C15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="E15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="16"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -1002,29 +1029,29 @@
       <c r="C16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>67</v>
+      <c r="D16" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="16"/>
+        <v>58</v>
+      </c>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="19"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="16"/>
       <c r="F17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="16"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -1036,14 +1063,16 @@
       <c r="C18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="E18" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
@@ -1055,25 +1084,29 @@
       <c r="C19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="14" t="s">
+        <v>74</v>
+      </c>
       <c r="E19" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
-      <c r="B20" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="1"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -1085,14 +1118,16 @@
       <c r="C21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="9" t="s">
+        <v>76</v>
+      </c>
       <c r="E21" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -1104,14 +1139,16 @@
       <c r="C22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="9" t="s">
+        <v>76</v>
+      </c>
       <c r="E22" s="7" t="s">
         <v>42</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -1123,14 +1160,16 @@
       <c r="C23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="9" t="s">
+        <v>76</v>
+      </c>
       <c r="E23" s="7" t="s">
         <v>45</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -1142,14 +1181,16 @@
       <c r="C24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="E24" s="7" t="s">
         <v>47</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -1161,14 +1202,16 @@
       <c r="C25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="9" t="s">
+        <v>78</v>
+      </c>
       <c r="E25" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -1180,14 +1223,16 @@
       <c r="C26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="E26" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="1"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -1199,14 +1244,16 @@
       <c r="C27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="D27" s="9" t="s">
+        <v>80</v>
+      </c>
       <c r="E27" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="1"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -1218,20 +1265,21 @@
       <c r="C28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="D28" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="E28" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="1"/>
+      <c r="G28" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B20:F20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/Additions/NetFrameworkByNet.xlsx
+++ b/Additions/NetFrameworkByNet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\Test\Untappd\UntappdViewerNet\Additions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADAE4D1-E5F2-4AA3-BE0A-09BDC4B93DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AC154F-B7C9-4F94-BCAF-95B1F2057F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB8C800B-24A0-4E7B-837D-F0CCFFA265D7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="86">
   <si>
     <t>HtmlAgilityPack</t>
   </si>
@@ -273,6 +273,18 @@
   </si>
   <si>
     <t>-Version 5.11.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -Version 1.0.0.3</t>
+  </si>
+  <si>
+    <t>-Version 2.1.7</t>
+  </si>
+  <si>
+    <t>GMap.NET.WinPresentation</t>
+  </si>
+  <si>
+    <t>https://www.nuget.org/packages/GMap.NET.WinPresentation</t>
   </si>
 </sst>
 </file>
@@ -391,6 +403,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -400,12 +418,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -721,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D56A9B-2CE9-444D-B94A-AB3506AA9259}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,7 +767,7 @@
       <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="13"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -776,7 +788,7 @@
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -788,7 +800,7 @@
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>61</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -797,7 +809,7 @@
       <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="13"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -807,7 +819,7 @@
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="11" t="s">
         <v>62</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -816,18 +828,18 @@
       <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="13"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -848,18 +860,18 @@
       <c r="F6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="13"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
@@ -871,7 +883,9 @@
       <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="15" t="s">
+        <v>82</v>
+      </c>
       <c r="E8" s="6" t="s">
         <v>17</v>
       </c>
@@ -881,260 +895,256 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D10" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17" t="s">
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="13"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="13"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="13"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="13"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="F16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D17" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16" t="s">
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="E18" s="12"/>
+      <c r="F18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>13</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="F19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D20" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17" t="s">
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>15</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="13"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>33</v>
@@ -1142,20 +1152,20 @@
       <c r="D22" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>42</v>
+      <c r="E22" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="13"/>
+      <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>33</v>
@@ -1164,117 +1174,138 @@
         <v>76</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="13"/>
+      <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="13"/>
+      <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="13"/>
+      <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>51</v>
+        <v>78</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="13"/>
+      <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="13"/>
+      <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D28" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>22</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="13"/>
+      <c r="F29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1288,24 +1319,25 @@
     <hyperlink ref="E3" r:id="rId3" xr:uid="{52120CE9-3D49-46C3-81DB-6295E309E89E}"/>
     <hyperlink ref="E4" r:id="rId4" xr:uid="{13B80CF7-0997-4ECA-AA53-45E248110F8E}"/>
     <hyperlink ref="E6" r:id="rId5" xr:uid="{F247915A-541C-478A-B5B1-4FCB2442F715}"/>
-    <hyperlink ref="E8" r:id="rId6" xr:uid="{00A2E581-8CFB-4AE8-BF66-FC5747EF06E0}"/>
-    <hyperlink ref="E11" r:id="rId7" xr:uid="{4DEF4118-2D3C-4FB5-9D92-BF10B8309A6B}"/>
-    <hyperlink ref="E12" r:id="rId8" xr:uid="{D9DE4368-7F29-49B8-83E7-53BE1C90C0FD}"/>
-    <hyperlink ref="E13" r:id="rId9" xr:uid="{89197C8D-0450-422A-9B55-3870190F20A9}"/>
-    <hyperlink ref="E14" r:id="rId10" xr:uid="{3C1410C8-364B-4551-86B6-FB900048E08F}"/>
-    <hyperlink ref="E15" r:id="rId11" xr:uid="{2485D4B7-A970-40F7-B4DF-7D661E76ACD1}"/>
-    <hyperlink ref="E16" r:id="rId12" xr:uid="{194606AE-336D-4E0A-9CB9-5C5D1E52A972}"/>
-    <hyperlink ref="E18" r:id="rId13" xr:uid="{25C9604D-3465-4C6C-85BC-CCA9D4B62312}"/>
-    <hyperlink ref="E19" r:id="rId14" xr:uid="{9D8C8C3B-0871-43C6-B1A3-DE6243AD71CF}"/>
-    <hyperlink ref="E21" r:id="rId15" xr:uid="{1BDB962E-0E3C-413B-9ADE-C9D2152C9BFB}"/>
-    <hyperlink ref="E22" r:id="rId16" xr:uid="{1AFBFC7E-F98B-4977-91F3-5347633A786E}"/>
-    <hyperlink ref="E23" r:id="rId17" xr:uid="{7A071C67-6372-47E9-8A69-28FED4536D5D}"/>
-    <hyperlink ref="E24" r:id="rId18" xr:uid="{ACD36FD5-0F52-4BFE-8A84-849C8C6EABD8}"/>
-    <hyperlink ref="E25" r:id="rId19" xr:uid="{67E1C08C-B9AC-44A2-BF38-CD52EC0B5E64}"/>
-    <hyperlink ref="E26" r:id="rId20" xr:uid="{9A32CB38-2BB1-4714-B7E9-CB5DFB78CF8B}"/>
-    <hyperlink ref="E27" r:id="rId21" xr:uid="{39767C41-5F46-4DD1-9665-F9D048C92C3C}"/>
-    <hyperlink ref="E28" r:id="rId22" xr:uid="{1302AC1E-6718-4FAF-AD5E-36584A0F35AE}"/>
-    <hyperlink ref="E9" r:id="rId23" xr:uid="{963F8DD4-7295-4C66-A179-190994A702B5}"/>
+    <hyperlink ref="E12" r:id="rId6" xr:uid="{4DEF4118-2D3C-4FB5-9D92-BF10B8309A6B}"/>
+    <hyperlink ref="E13" r:id="rId7" xr:uid="{D9DE4368-7F29-49B8-83E7-53BE1C90C0FD}"/>
+    <hyperlink ref="E14" r:id="rId8" xr:uid="{89197C8D-0450-422A-9B55-3870190F20A9}"/>
+    <hyperlink ref="E15" r:id="rId9" xr:uid="{3C1410C8-364B-4551-86B6-FB900048E08F}"/>
+    <hyperlink ref="E16" r:id="rId10" xr:uid="{2485D4B7-A970-40F7-B4DF-7D661E76ACD1}"/>
+    <hyperlink ref="E17" r:id="rId11" xr:uid="{194606AE-336D-4E0A-9CB9-5C5D1E52A972}"/>
+    <hyperlink ref="E19" r:id="rId12" xr:uid="{25C9604D-3465-4C6C-85BC-CCA9D4B62312}"/>
+    <hyperlink ref="E20" r:id="rId13" xr:uid="{9D8C8C3B-0871-43C6-B1A3-DE6243AD71CF}"/>
+    <hyperlink ref="E22" r:id="rId14" xr:uid="{1BDB962E-0E3C-413B-9ADE-C9D2152C9BFB}"/>
+    <hyperlink ref="E23" r:id="rId15" xr:uid="{1AFBFC7E-F98B-4977-91F3-5347633A786E}"/>
+    <hyperlink ref="E24" r:id="rId16" xr:uid="{7A071C67-6372-47E9-8A69-28FED4536D5D}"/>
+    <hyperlink ref="E25" r:id="rId17" xr:uid="{ACD36FD5-0F52-4BFE-8A84-849C8C6EABD8}"/>
+    <hyperlink ref="E26" r:id="rId18" xr:uid="{67E1C08C-B9AC-44A2-BF38-CD52EC0B5E64}"/>
+    <hyperlink ref="E27" r:id="rId19" xr:uid="{9A32CB38-2BB1-4714-B7E9-CB5DFB78CF8B}"/>
+    <hyperlink ref="E28" r:id="rId20" xr:uid="{39767C41-5F46-4DD1-9665-F9D048C92C3C}"/>
+    <hyperlink ref="E29" r:id="rId21" xr:uid="{1302AC1E-6718-4FAF-AD5E-36584A0F35AE}"/>
+    <hyperlink ref="E10" r:id="rId22" xr:uid="{963F8DD4-7295-4C66-A179-190994A702B5}"/>
+    <hyperlink ref="E8" r:id="rId23" xr:uid="{EBA32619-0350-44FA-825D-147628372817}"/>
+    <hyperlink ref="E9" r:id="rId24" xr:uid="{30B1CC40-7B64-4461-985B-A63E88B3BA75}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Additions/NetFrameworkByNet.xlsx
+++ b/Additions/NetFrameworkByNet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\Test\Untappd\UntappdViewerNet\Additions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AC154F-B7C9-4F94-BCAF-95B1F2057F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7626BE21-39F9-4DCA-B782-101C2B64BA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB8C800B-24A0-4E7B-837D-F0CCFFA265D7}"/>
+    <workbookView xWindow="-25320" yWindow="2430" windowWidth="25440" windowHeight="15390" xr2:uid="{AB8C800B-24A0-4E7B-837D-F0CCFFA265D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -314,7 +314,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,12 +324,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,23 +386,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -736,7 +727,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,7 +749,7 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>59</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -767,7 +758,7 @@
       <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="10"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -779,7 +770,7 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -788,7 +779,7 @@
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="10"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -800,7 +791,7 @@
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>61</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -809,7 +800,7 @@
       <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="10"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -819,7 +810,7 @@
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>62</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -828,18 +819,18 @@
       <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="10"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="10"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -860,56 +851,56 @@
       <c r="F6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="10"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="10"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="15" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="1"/>
+      <c r="F9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -921,7 +912,7 @@
       <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="9" t="s">
         <v>64</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -930,20 +921,20 @@
       <c r="F10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="10"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="10"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -955,7 +946,7 @@
       <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>68</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -964,7 +955,7 @@
       <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="10"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -976,7 +967,7 @@
       <c r="C13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="7" t="s">
         <v>69</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -985,7 +976,7 @@
       <c r="F13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="10"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -997,7 +988,7 @@
       <c r="C14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="7" t="s">
         <v>70</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -1006,7 +997,7 @@
       <c r="F14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="10"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -1018,7 +1009,7 @@
       <c r="C15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="7" t="s">
         <v>71</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -1027,7 +1018,7 @@
       <c r="F15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="10"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -1039,7 +1030,7 @@
       <c r="C16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="7" t="s">
         <v>72</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -1048,7 +1039,7 @@
       <c r="F16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="10"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -1060,7 +1051,7 @@
       <c r="C17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="9" t="s">
         <v>66</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -1069,20 +1060,20 @@
       <c r="F17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="10"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="12"/>
+      <c r="E18" s="10"/>
       <c r="F18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="10"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -1094,7 +1085,7 @@
       <c r="C19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="7" t="s">
         <v>73</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -1103,7 +1094,7 @@
       <c r="F19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="10"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -1115,7 +1106,7 @@
       <c r="C20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="9" t="s">
         <v>74</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -1124,20 +1115,20 @@
       <c r="F20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="10"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13" t="s">
+      <c r="A21" s="6"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="12"/>
+      <c r="E21" s="10"/>
       <c r="F21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="10"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -1149,7 +1140,7 @@
       <c r="C22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="7" t="s">
         <v>76</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -1158,7 +1149,7 @@
       <c r="F22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="10"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -1170,16 +1161,16 @@
       <c r="C23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="5" t="s">
         <v>42</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="10"/>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -1191,16 +1182,16 @@
       <c r="C24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="5" t="s">
         <v>45</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="10"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -1212,16 +1203,16 @@
       <c r="C25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="5" t="s">
         <v>47</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="10"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -1233,16 +1224,16 @@
       <c r="C26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="5" t="s">
         <v>49</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="10"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -1254,7 +1245,7 @@
       <c r="C27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="7" t="s">
         <v>79</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -1263,7 +1254,7 @@
       <c r="F27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="10"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -1275,7 +1266,7 @@
       <c r="C28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="7" t="s">
         <v>80</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -1284,7 +1275,7 @@
       <c r="F28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="10"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -1296,7 +1287,7 @@
       <c r="C29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="7" t="s">
         <v>81</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -1305,7 +1296,7 @@
       <c r="F29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="10"/>
+      <c r="G29" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
